--- a/biology/Zoologie/Aneides_aeneus/Aneides_aeneus.xlsx
+++ b/biology/Zoologie/Aneides_aeneus/Aneides_aeneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aneides aeneus est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aneides aeneus est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans le sud de l'Ohio, dans le Sud de l'Indiana, dans le sud-ouest de la Pennsylvanie, dans l'Ouest du Maryland, en Virginie-Occidentale, dans l'ouest de la Virginie, dans l'Est du Kentucky, dans l'Ouest de la Caroline du Nord, dans l'Ouest de la Caroline du Sud, dans l'Est du Tennessee, dans le nord de la Géorgie, dans le Nord de l'Alabama et dans le Nord du Mississippi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans le sud de l'Ohio, dans le Sud de l'Indiana, dans le sud-ouest de la Pennsylvanie, dans l'Ouest du Maryland, en Virginie-Occidentale, dans l'ouest de la Virginie, dans l'Est du Kentucky, dans l'Ouest de la Caroline du Nord, dans l'Ouest de la Caroline du Sud, dans l'Est du Tennessee, dans le nord de la Géorgie, dans le Nord de l'Alabama et dans le Nord du Mississippi.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope &amp; Packard, 1881 : The fauna of the Nickajack Cave. American Naturalist, vol. 15, p. 877-882 (texte intégral).</t>
         </is>
